--- a/assets uarm/2019 sol-penscri-justfilpol/S E B Ago2019/notas 2019-II.xlsx
+++ b/assets uarm/2019 sol-penscri-justfilpol/S E B Ago2019/notas 2019-II.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitData\ZabData\zaboltar.github.io\assets uarm\2019 sol-penscri-justfilpol\S E B Ago2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alumnos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16905" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="119">
   <si>
     <t xml:space="preserve">Curso: </t>
   </si>
@@ -357,6 +357,30 @@
   </si>
   <si>
     <t>dialectica positiva/negativa - caverna platón</t>
+  </si>
+  <si>
+    <t>Etica y Empresa: Ciudadania y los fines de la empresa</t>
+  </si>
+  <si>
+    <t>Laudato</t>
+  </si>
+  <si>
+    <t>Etica de los deberes Prima Facie</t>
+  </si>
+  <si>
+    <t>Resp del prof univ</t>
+  </si>
+  <si>
+    <t>análisis de Caso</t>
+  </si>
+  <si>
+    <t>Egoismo</t>
+  </si>
+  <si>
+    <t>Formación del alumnado</t>
+  </si>
+  <si>
+    <t>Lo que está pasando en nuestra casa</t>
   </si>
 </sst>
 </file>
@@ -757,25 +781,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="42.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1662,7 +1689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
         <v>32</v>
@@ -1689,7 +1716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
         <v>33</v>
@@ -1720,7 +1747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
         <v>34</v>
@@ -1749,7 +1776,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
         <v>35</v>
@@ -1778,7 +1805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
         <v>36</v>
@@ -1803,7 +1830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
         <v>37</v>
@@ -1834,7 +1861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
         <v>38</v>
@@ -1863,7 +1890,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
         <v>39</v>
@@ -1890,7 +1917,7 @@
       </c>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
         <v>40</v>
@@ -1921,7 +1948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
         <v>107</v>
@@ -1946,12 +1973,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>41</v>
       </c>
@@ -1971,23 +1998,65 @@
       <c r="G44" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H44" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="M44" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="N44" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="O44" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="16"/>
+      <c r="C45" s="16">
+        <v>16</v>
+      </c>
       <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
+      <c r="E45" s="16">
+        <v>15</v>
+      </c>
       <c r="F45" s="16">
         <v>17</v>
       </c>
       <c r="G45" s="16">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16">
+        <v>16</v>
+      </c>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16">
+        <v>16</v>
+      </c>
+      <c r="O45" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="17" t="s">
         <v>44</v>
@@ -1996,15 +2065,37 @@
         <v>16</v>
       </c>
       <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
+      <c r="E46" s="16">
+        <v>16</v>
+      </c>
       <c r="F46" s="16">
         <v>16</v>
       </c>
       <c r="G46" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H46" s="16">
+        <v>16</v>
+      </c>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16">
+        <v>15</v>
+      </c>
+      <c r="K46" s="16">
+        <v>15</v>
+      </c>
+      <c r="L46" s="16">
+        <v>14</v>
+      </c>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16">
+        <v>16</v>
+      </c>
+      <c r="O46" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="17" t="s">
         <v>45</v>
@@ -2015,15 +2106,35 @@
       <c r="D47" s="16">
         <v>16</v>
       </c>
-      <c r="E47" s="16"/>
+      <c r="E47" s="16">
+        <v>15</v>
+      </c>
       <c r="F47" s="16">
         <v>16</v>
       </c>
       <c r="G47" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16">
+        <v>16</v>
+      </c>
+      <c r="K47" s="16">
+        <v>15</v>
+      </c>
+      <c r="L47" s="16">
+        <v>14</v>
+      </c>
+      <c r="M47" s="16">
+        <v>16</v>
+      </c>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="17" t="s">
         <v>46</v>
@@ -2037,8 +2148,24 @@
       <c r="G48" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16">
+        <v>16</v>
+      </c>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16">
+        <v>15</v>
+      </c>
+      <c r="M48" s="16">
+        <v>15</v>
+      </c>
+      <c r="N48" s="16">
+        <v>16</v>
+      </c>
+      <c r="O48" s="16"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="17" t="s">
         <v>42</v>
@@ -2052,14 +2179,30 @@
       <c r="G49" s="16">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16">
+        <v>16</v>
+      </c>
+      <c r="M49" s="16">
+        <v>15</v>
+      </c>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
+      <c r="C50" s="16">
+        <v>15</v>
+      </c>
+      <c r="D50" s="16">
+        <v>16</v>
+      </c>
       <c r="E50" s="16"/>
       <c r="F50" s="16">
         <v>17</v>
@@ -2067,8 +2210,26 @@
       <c r="G50" s="16">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="16">
+        <v>15</v>
+      </c>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16">
+        <v>15</v>
+      </c>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16">
+        <v>16</v>
+      </c>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16">
+        <v>16</v>
+      </c>
+      <c r="O50" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="17" t="s">
         <v>70</v>
@@ -2080,12 +2241,28 @@
       <c r="E51" s="16">
         <v>17</v>
       </c>
-      <c r="F51" s="16"/>
+      <c r="F51" s="16">
+        <v>17</v>
+      </c>
       <c r="G51" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16">
+        <v>16</v>
+      </c>
+      <c r="K51" s="16">
+        <v>16</v>
+      </c>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16">
+        <v>16</v>
+      </c>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="17" t="s">
         <v>48</v>
@@ -2101,14 +2278,34 @@
       <c r="G52" s="16">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16">
+        <v>15</v>
+      </c>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16">
+        <v>16</v>
+      </c>
+      <c r="M52" s="16">
+        <v>16</v>
+      </c>
+      <c r="N52" s="16">
+        <v>16</v>
+      </c>
+      <c r="O52" s="16"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
+      <c r="C53" s="16">
+        <v>16</v>
+      </c>
+      <c r="D53" s="16">
+        <v>15</v>
+      </c>
       <c r="E53" s="16"/>
       <c r="F53" s="16">
         <v>16</v>
@@ -2116,8 +2313,22 @@
       <c r="G53" s="16">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="16"/>
+      <c r="I53" s="16">
+        <v>15</v>
+      </c>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16">
+        <v>15</v>
+      </c>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16">
+        <v>15</v>
+      </c>
+      <c r="O53" s="16"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="17" t="s">
         <v>50</v>
@@ -2126,15 +2337,33 @@
       <c r="D54" s="16">
         <v>16</v>
       </c>
-      <c r="E54" s="16"/>
+      <c r="E54" s="16">
+        <v>17</v>
+      </c>
       <c r="F54" s="16">
         <v>16</v>
       </c>
       <c r="G54" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16">
+        <v>15</v>
+      </c>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16">
+        <v>16</v>
+      </c>
+      <c r="M54" s="16">
+        <v>16</v>
+      </c>
+      <c r="N54" s="16">
+        <v>15</v>
+      </c>
+      <c r="O54" s="16"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="17" t="s">
         <v>51</v>
@@ -2154,8 +2383,24 @@
       <c r="G55" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="16">
+        <v>17</v>
+      </c>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16">
+        <v>16</v>
+      </c>
+      <c r="K55" s="16">
+        <v>15</v>
+      </c>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16">
+        <v>15</v>
+      </c>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="17" t="s">
         <v>52</v>
@@ -2173,23 +2418,49 @@
       <c r="G56" s="16">
         <v>17</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16">
+        <v>16</v>
+      </c>
+      <c r="M56" s="16">
+        <v>15</v>
+      </c>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="16"/>
+      <c r="C57" s="16">
+        <v>15</v>
+      </c>
       <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
+      <c r="E57" s="16">
+        <v>15</v>
+      </c>
       <c r="F57" s="16">
         <v>17</v>
       </c>
       <c r="G57" s="16">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="16">
+        <v>16</v>
+      </c>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="17" t="s">
         <v>54</v>
@@ -2209,8 +2480,24 @@
       <c r="G58" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16">
+        <v>16</v>
+      </c>
+      <c r="K58" s="16">
+        <v>16</v>
+      </c>
+      <c r="L58" s="16">
+        <v>16</v>
+      </c>
+      <c r="M58" s="16">
+        <v>16</v>
+      </c>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="17" t="s">
         <v>55</v>
@@ -2228,8 +2515,18 @@
       <c r="G59" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16">
+        <v>16</v>
+      </c>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="17" t="s">
         <v>56</v>
@@ -2243,8 +2540,18 @@
       <c r="G60" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16">
+        <v>16</v>
+      </c>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="17" t="s">
         <v>57</v>
@@ -2258,8 +2565,26 @@
       <c r="G61" s="16">
         <v>17</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="16">
+        <v>14</v>
+      </c>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16">
+        <v>14</v>
+      </c>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16">
+        <v>16</v>
+      </c>
+      <c r="M61" s="16">
+        <v>14</v>
+      </c>
+      <c r="N61" s="16">
+        <v>14</v>
+      </c>
+      <c r="O61" s="16"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="17" t="s">
         <v>58</v>
@@ -2275,8 +2600,20 @@
       <c r="G62" s="16">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16">
+        <v>15</v>
+      </c>
+      <c r="K62" s="16">
+        <v>16</v>
+      </c>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="17" t="s">
         <v>59</v>
@@ -2296,8 +2633,24 @@
       <c r="G63" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16">
+        <v>16</v>
+      </c>
+      <c r="K63" s="16">
+        <v>15</v>
+      </c>
+      <c r="L63" s="16">
+        <v>16</v>
+      </c>
+      <c r="M63" s="16">
+        <v>15</v>
+      </c>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="17" t="s">
         <v>60</v>
@@ -2315,8 +2668,24 @@
       <c r="G64" s="16">
         <v>17</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16">
+        <v>16</v>
+      </c>
+      <c r="K64" s="16">
+        <v>15</v>
+      </c>
+      <c r="L64" s="16">
+        <v>14</v>
+      </c>
+      <c r="M64" s="16">
+        <v>15</v>
+      </c>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="17" t="s">
         <v>61</v>
@@ -2334,8 +2703,28 @@
       <c r="G65" s="16">
         <v>17</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="16">
+        <v>16</v>
+      </c>
+      <c r="I65" s="16">
+        <v>16</v>
+      </c>
+      <c r="J65" s="16">
+        <v>16</v>
+      </c>
+      <c r="K65" s="16">
+        <v>16</v>
+      </c>
+      <c r="L65" s="16">
+        <v>16</v>
+      </c>
+      <c r="M65" s="16">
+        <v>16</v>
+      </c>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="17" t="s">
         <v>62</v>
@@ -2351,8 +2740,24 @@
       <c r="G66" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16">
+        <v>15</v>
+      </c>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16">
+        <v>15</v>
+      </c>
+      <c r="M66" s="16">
+        <v>15</v>
+      </c>
+      <c r="N66" s="16">
+        <v>16</v>
+      </c>
+      <c r="O66" s="16"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="17" t="s">
         <v>63</v>
@@ -2372,8 +2777,20 @@
       <c r="G67" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16">
+        <v>15</v>
+      </c>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16">
+        <v>16</v>
+      </c>
+      <c r="O67" s="16"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="17" t="s">
         <v>64</v>
@@ -2384,20 +2801,42 @@
       <c r="D68" s="16">
         <v>16</v>
       </c>
-      <c r="E68" s="16"/>
+      <c r="E68" s="16">
+        <v>16</v>
+      </c>
       <c r="F68" s="16">
         <v>16</v>
       </c>
       <c r="G68" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16">
+        <v>16</v>
+      </c>
+      <c r="K68" s="16">
+        <v>15</v>
+      </c>
+      <c r="L68" s="16">
+        <v>16</v>
+      </c>
+      <c r="M68" s="16">
+        <v>15</v>
+      </c>
+      <c r="N68" s="16">
+        <v>16</v>
+      </c>
+      <c r="O68" s="16"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="16"/>
+      <c r="C69" s="16">
+        <v>16</v>
+      </c>
       <c r="D69" s="16">
         <v>16</v>
       </c>
@@ -2408,8 +2847,26 @@
       <c r="G69" s="16">
         <v>17</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="16">
+        <v>16</v>
+      </c>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16">
+        <v>16</v>
+      </c>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16">
+        <v>15</v>
+      </c>
+      <c r="N69" s="16">
+        <v>16</v>
+      </c>
+      <c r="O69" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="17" t="s">
         <v>66</v>
@@ -2429,8 +2886,22 @@
       <c r="G70" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16">
+        <v>15</v>
+      </c>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16">
+        <v>14</v>
+      </c>
+      <c r="N70" s="16">
+        <v>16</v>
+      </c>
+      <c r="O70" s="16"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="17" t="s">
         <v>67</v>
@@ -2450,8 +2921,26 @@
       <c r="G71" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16">
+        <v>16</v>
+      </c>
+      <c r="K71" s="16">
+        <v>16</v>
+      </c>
+      <c r="L71" s="16">
+        <v>17</v>
+      </c>
+      <c r="M71" s="16">
+        <v>16</v>
+      </c>
+      <c r="N71" s="16">
+        <v>16</v>
+      </c>
+      <c r="O71" s="16"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="17" t="s">
         <v>68</v>
@@ -2465,8 +2954,16 @@
       <c r="G72" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="17" t="s">
         <v>69</v>
@@ -2486,20 +2983,36 @@
       <c r="G73" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16">
+        <v>15</v>
+      </c>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16">
+        <v>16</v>
+      </c>
+      <c r="M73" s="16">
+        <v>16</v>
+      </c>
+      <c r="N73" s="16">
+        <v>16</v>
+      </c>
+      <c r="O73" s="16"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
       <c r="B74" s="15"/>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>71</v>
       </c>
@@ -2511,7 +3024,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="5" t="s">
         <v>72</v>
@@ -2523,7 +3036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="5" t="s">
         <v>81</v>
@@ -2535,7 +3048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="6" t="s">
         <v>73</v>
@@ -2547,7 +3060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="5" t="s">
         <v>80</v>

--- a/assets uarm/2019 sol-penscri-justfilpol/S E B Ago2019/notas 2019-II.xlsx
+++ b/assets uarm/2019 sol-penscri-justfilpol/S E B Ago2019/notas 2019-II.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alumnos\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitData\ZabData\zaboltar.github.io\assets uarm\2019 sol-penscri-justfilpol\S E B Ago2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="118">
   <si>
     <t xml:space="preserve">Curso: </t>
   </si>
@@ -378,9 +378,6 @@
   </si>
   <si>
     <t>Formación del alumnado</t>
-  </si>
-  <si>
-    <t>Lo que está pasando en nuestra casa</t>
   </si>
 </sst>
 </file>
@@ -417,7 +414,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,6 +442,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -501,6 +504,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,16 +806,16 @@
     <col min="11" max="11" width="12.85546875" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
     <col min="15" max="15" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -819,58 +824,64 @@
         <v>89</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4">
+        <v>16</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="4">
         <v>14</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4">
-        <v>15</v>
-      </c>
       <c r="J3" s="4">
-        <v>17</v>
-      </c>
-      <c r="K3" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="4">
+        <v>16</v>
+      </c>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -880,26 +891,28 @@
         <v>15</v>
       </c>
       <c r="E4" s="4">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4">
+        <v>18</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="4">
         <v>14</v>
       </c>
-      <c r="F4" s="4">
-        <v>17</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4">
-        <v>15</v>
-      </c>
-      <c r="I4" s="4">
-        <v>15</v>
-      </c>
       <c r="J4" s="4">
-        <v>16</v>
-      </c>
-      <c r="K4" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="4">
+        <v>15</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>4</v>
@@ -909,24 +922,26 @@
         <v>15</v>
       </c>
       <c r="E5" s="4">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4">
+        <v>18</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="4">
         <v>13</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4">
-        <v>15</v>
-      </c>
-      <c r="I5" s="4">
-        <v>15</v>
-      </c>
-      <c r="J5" s="4">
-        <v>17</v>
-      </c>
-      <c r="K5" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="4"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="4">
+        <v>15</v>
+      </c>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -936,82 +951,88 @@
         <v>15</v>
       </c>
       <c r="E6" s="4">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4">
+        <v>17</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="4">
         <v>13</v>
       </c>
-      <c r="F6" s="4">
-        <v>17</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
-        <v>15</v>
-      </c>
-      <c r="I6" s="4">
-        <v>15</v>
-      </c>
       <c r="J6" s="4">
         <v>17</v>
       </c>
-      <c r="K6" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="18"/>
+      <c r="L6" s="4">
+        <v>15</v>
+      </c>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="E7" s="4">
+        <v>15</v>
+      </c>
       <c r="F7" s="4">
         <v>18</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4">
-        <v>15</v>
-      </c>
-      <c r="I7" s="4">
-        <v>15</v>
-      </c>
+      <c r="G7" s="4">
+        <v>18</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="4">
         <v>18</v>
       </c>
-      <c r="K7" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="18"/>
+      <c r="L7" s="4">
+        <v>14</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4">
+        <v>17</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="4">
+        <v>14</v>
+      </c>
+      <c r="J8" s="4">
+        <v>16</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="4">
         <v>13</v>
       </c>
-      <c r="E8" s="4">
-        <v>14</v>
-      </c>
-      <c r="F8" s="4">
-        <v>16</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4">
-        <v>15</v>
-      </c>
-      <c r="I8" s="4">
-        <v>15</v>
-      </c>
-      <c r="J8" s="4">
-        <v>16</v>
-      </c>
-      <c r="K8" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>8</v>
@@ -1021,26 +1042,28 @@
         <v>16</v>
       </c>
       <c r="E9" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="4">
-        <v>17</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4">
-        <v>16</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" s="4">
+        <v>17</v>
+      </c>
+      <c r="H9" s="18"/>
       <c r="I9" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" s="4">
-        <v>16</v>
-      </c>
-      <c r="K9" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="4">
+        <v>16</v>
+      </c>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>9</v>
@@ -1050,192 +1073,206 @@
         <v>15</v>
       </c>
       <c r="E10" s="4">
+        <v>15</v>
+      </c>
+      <c r="F10" s="4">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="4">
         <v>14</v>
       </c>
-      <c r="F10" s="4">
-        <v>16</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4">
-        <v>15</v>
-      </c>
-      <c r="I10" s="4">
-        <v>15</v>
-      </c>
       <c r="J10" s="4">
-        <v>15</v>
-      </c>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="4">
+        <v>15</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4">
+        <v>17</v>
+      </c>
+      <c r="G11" s="4">
+        <v>17</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="4">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4">
         <v>19</v>
       </c>
-      <c r="E11" s="4">
-        <v>13</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="K11" s="18"/>
+      <c r="L11" s="4">
         <v>19</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4">
-        <v>16</v>
-      </c>
-      <c r="I11" s="4">
-        <v>15</v>
-      </c>
-      <c r="J11" s="4">
-        <v>17</v>
-      </c>
-      <c r="K11" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4">
+        <v>15</v>
+      </c>
+      <c r="F12" s="4">
+        <v>16</v>
+      </c>
+      <c r="G12" s="4">
+        <v>17</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="4">
+        <v>15</v>
+      </c>
+      <c r="J12" s="4">
+        <v>15</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="4">
         <v>13</v>
       </c>
-      <c r="E12" s="4">
-        <v>15</v>
-      </c>
-      <c r="F12" s="4">
-        <v>15</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4">
-        <v>15</v>
-      </c>
-      <c r="I12" s="4">
-        <v>15</v>
-      </c>
-      <c r="J12" s="4">
-        <v>16</v>
-      </c>
-      <c r="K12" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4">
+        <v>15</v>
+      </c>
+      <c r="F13" s="4">
+        <v>17</v>
+      </c>
+      <c r="G13" s="4">
+        <v>17</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="4">
+        <v>13</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="4">
         <v>12</v>
       </c>
-      <c r="E13" s="4">
-        <v>13</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4">
-        <v>15</v>
-      </c>
-      <c r="I13" s="4">
-        <v>15</v>
-      </c>
-      <c r="J13" s="4">
-        <v>17</v>
-      </c>
-      <c r="K13" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4">
+        <v>15</v>
+      </c>
+      <c r="F14" s="4">
+        <v>16</v>
+      </c>
+      <c r="G14" s="4">
+        <v>17</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="4">
+        <v>15</v>
+      </c>
+      <c r="J14" s="4">
+        <v>17</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="4">
         <v>13</v>
       </c>
-      <c r="E14" s="4">
-        <v>15</v>
-      </c>
-      <c r="F14" s="4">
-        <v>17</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4">
-        <v>15</v>
-      </c>
-      <c r="I14" s="4">
-        <v>15</v>
-      </c>
-      <c r="J14" s="4">
-        <v>16</v>
-      </c>
-      <c r="K14" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4">
+        <v>15</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="4">
+        <v>13</v>
+      </c>
+      <c r="J15" s="4">
+        <v>13</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="4">
         <v>14</v>
       </c>
-      <c r="E15" s="4">
-        <v>13</v>
-      </c>
-      <c r="F15" s="4">
-        <v>13</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4">
-        <v>15</v>
-      </c>
-      <c r="I15" s="4">
-        <v>15</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4">
+        <v>15</v>
+      </c>
+      <c r="F16" s="4">
+        <v>17</v>
+      </c>
+      <c r="G16" s="4">
+        <v>16</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="4">
+        <v>14</v>
+      </c>
+      <c r="J16" s="4">
+        <v>14</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="4">
         <v>12</v>
       </c>
-      <c r="E16" s="4">
-        <v>14</v>
-      </c>
-      <c r="F16" s="4">
-        <v>14</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4">
-        <v>15</v>
-      </c>
-      <c r="I16" s="4">
-        <v>15</v>
-      </c>
-      <c r="J16" s="4">
-        <v>17</v>
-      </c>
-      <c r="K16" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>16</v>
@@ -1245,22 +1282,24 @@
         <v>15</v>
       </c>
       <c r="E17" s="4">
-        <v>16</v>
-      </c>
-      <c r="F17" s="4">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4">
-        <v>15</v>
-      </c>
+      <c r="H17" s="18"/>
       <c r="I17" s="4">
-        <v>15</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="J17" s="4">
+        <v>16</v>
+      </c>
+      <c r="K17" s="18"/>
+      <c r="L17" s="4">
+        <v>15</v>
+      </c>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>17</v>
@@ -1269,83 +1308,89 @@
         <v>16</v>
       </c>
       <c r="D18" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E18" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" s="4">
         <v>18</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4">
-        <v>15</v>
-      </c>
+      <c r="G18" s="4">
+        <v>17</v>
+      </c>
+      <c r="H18" s="18"/>
       <c r="I18" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J18" s="4">
         <v>18</v>
       </c>
-      <c r="K18" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="18"/>
+      <c r="L18" s="4">
+        <v>17</v>
+      </c>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="4">
+        <v>15</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
+        <v>16</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="4">
         <v>14</v>
       </c>
-      <c r="F19" s="4">
-        <v>16</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4">
-        <v>15</v>
-      </c>
-      <c r="I19" s="4">
-        <v>15</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J19" s="4">
+        <v>16</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="4">
+        <v>16</v>
+      </c>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="4">
+        <v>15</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
+        <v>16</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="4">
         <v>13</v>
       </c>
-      <c r="F20" s="4">
+      <c r="J20" s="4">
         <v>14</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4">
-        <v>15</v>
-      </c>
-      <c r="I20" s="4">
-        <v>15</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="18"/>
+      <c r="L20" s="4">
+        <v>16</v>
+      </c>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>20</v>
@@ -1356,25 +1401,27 @@
       <c r="D21" s="4">
         <v>15</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="4">
+        <v>15</v>
+      </c>
       <c r="F21" s="4">
         <v>16</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4">
-        <v>15</v>
-      </c>
-      <c r="I21" s="4">
-        <v>15</v>
-      </c>
+      <c r="G21" s="4">
+        <v>16</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="4">
         <v>16</v>
       </c>
-      <c r="K21" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="18"/>
+      <c r="L21" s="4">
+        <v>15</v>
+      </c>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>21</v>
@@ -1387,23 +1434,25 @@
         <v>15</v>
       </c>
       <c r="F22" s="4">
-        <v>15</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G22" s="4">
+        <v>17</v>
+      </c>
+      <c r="H22" s="18"/>
       <c r="I22" s="4">
         <v>15</v>
       </c>
       <c r="J22" s="4">
-        <v>17</v>
-      </c>
-      <c r="K22" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="K22" s="18"/>
+      <c r="L22" s="4">
+        <v>15</v>
+      </c>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>22</v>
@@ -1414,52 +1463,56 @@
       <c r="D23" s="4">
         <v>15</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4">
-        <v>15</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4">
-        <v>15</v>
-      </c>
-      <c r="I23" s="4">
-        <v>15</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="4">
+        <v>15</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
+        <v>17</v>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
+        <v>15</v>
+      </c>
+      <c r="K23" s="18"/>
+      <c r="L23" s="4">
+        <v>15</v>
+      </c>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4">
+        <v>15</v>
+      </c>
+      <c r="E24" s="4">
+        <v>15</v>
+      </c>
+      <c r="F24" s="4">
+        <v>16</v>
+      </c>
+      <c r="G24" s="4">
+        <v>16</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="4">
+        <v>16</v>
+      </c>
+      <c r="J24" s="4">
+        <v>19</v>
+      </c>
+      <c r="K24" s="18"/>
+      <c r="L24" s="4">
         <v>14</v>
       </c>
-      <c r="E24" s="4">
-        <v>16</v>
-      </c>
-      <c r="F24" s="4">
-        <v>19</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4">
-        <v>15</v>
-      </c>
-      <c r="I24" s="4">
-        <v>15</v>
-      </c>
-      <c r="J24" s="4">
-        <v>16</v>
-      </c>
-      <c r="K24" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>24</v>
@@ -1469,51 +1522,57 @@
         <v>15</v>
       </c>
       <c r="E25" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" s="4">
         <v>17</v>
       </c>
       <c r="G25" s="4"/>
-      <c r="H25" s="4">
-        <v>15</v>
-      </c>
+      <c r="H25" s="18"/>
       <c r="I25" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J25" s="4">
         <v>17</v>
       </c>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="18"/>
+      <c r="L25" s="4">
+        <v>15</v>
+      </c>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="4">
+        <v>15</v>
+      </c>
+      <c r="F26" s="4">
+        <v>17</v>
+      </c>
+      <c r="G26" s="4">
+        <v>17</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="4">
         <v>13</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4">
-        <v>16</v>
-      </c>
-      <c r="I26" s="4">
-        <v>15</v>
-      </c>
       <c r="J26" s="4">
-        <v>17</v>
-      </c>
-      <c r="K26" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="K26" s="18"/>
+      <c r="L26" s="4">
+        <v>17</v>
+      </c>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>26</v>
@@ -1522,29 +1581,31 @@
         <v>17</v>
       </c>
       <c r="D27" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E27" s="4">
         <v>15</v>
       </c>
       <c r="F27" s="4">
-        <v>15</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" s="4">
+        <v>17</v>
+      </c>
+      <c r="H27" s="18"/>
       <c r="I27" s="4">
         <v>15</v>
       </c>
       <c r="J27" s="4">
-        <v>16</v>
-      </c>
-      <c r="K27" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="K27" s="18"/>
+      <c r="L27" s="4">
+        <v>17</v>
+      </c>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>27</v>
@@ -1553,7 +1614,7 @@
         <v>15</v>
       </c>
       <c r="D28" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" s="4">
         <v>15</v>
@@ -1561,21 +1622,23 @@
       <c r="F28" s="4">
         <v>16</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4">
-        <v>16</v>
-      </c>
+      <c r="G28" s="4">
+        <v>17</v>
+      </c>
+      <c r="H28" s="18"/>
       <c r="I28" s="4">
         <v>15</v>
       </c>
       <c r="J28" s="4">
         <v>16</v>
       </c>
-      <c r="K28" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="18"/>
+      <c r="L28" s="4">
+        <v>15</v>
+      </c>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>28</v>
@@ -1588,79 +1651,85 @@
         <v>15</v>
       </c>
       <c r="F29" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="4">
-        <v>15</v>
-      </c>
+      <c r="H29" s="18"/>
       <c r="I29" s="4">
         <v>15</v>
       </c>
       <c r="J29" s="4">
-        <v>15</v>
-      </c>
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="K29" s="18"/>
+      <c r="L29" s="4">
+        <v>15</v>
+      </c>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4">
+        <v>16</v>
+      </c>
+      <c r="E30" s="4">
+        <v>15</v>
+      </c>
+      <c r="F30" s="4">
+        <v>16</v>
+      </c>
+      <c r="G30" s="4">
+        <v>16</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="4">
+        <v>15</v>
+      </c>
+      <c r="J30" s="4">
+        <v>13</v>
+      </c>
+      <c r="K30" s="18"/>
+      <c r="L30" s="4">
         <v>12</v>
       </c>
-      <c r="E30" s="4">
-        <v>15</v>
-      </c>
-      <c r="F30" s="4">
-        <v>13</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4">
-        <v>16</v>
-      </c>
-      <c r="I30" s="4">
-        <v>15</v>
-      </c>
-      <c r="J30" s="4">
-        <v>16</v>
-      </c>
-      <c r="K30" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4">
+        <v>15</v>
+      </c>
+      <c r="E31" s="4">
+        <v>15</v>
+      </c>
+      <c r="F31" s="4">
+        <v>16</v>
+      </c>
+      <c r="G31" s="4">
+        <v>17</v>
+      </c>
+      <c r="H31" s="18"/>
+      <c r="I31" s="4">
+        <v>12</v>
+      </c>
+      <c r="J31" s="4">
+        <v>17</v>
+      </c>
+      <c r="K31" s="18"/>
+      <c r="L31" s="4">
         <v>13</v>
       </c>
-      <c r="E31" s="4">
-        <v>12</v>
-      </c>
-      <c r="F31" s="4">
-        <v>17</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4">
-        <v>15</v>
-      </c>
-      <c r="I31" s="4">
-        <v>15</v>
-      </c>
-      <c r="J31" s="4">
-        <v>16</v>
-      </c>
-      <c r="K31" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
         <v>31</v>
@@ -1670,53 +1739,59 @@
         <v>15</v>
       </c>
       <c r="E32" s="4">
+        <v>15</v>
+      </c>
+      <c r="F32" s="4">
+        <v>17</v>
+      </c>
+      <c r="G32" s="4">
+        <v>16</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="4">
         <v>14</v>
       </c>
-      <c r="F32" s="4">
-        <v>16</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4">
-        <v>15</v>
-      </c>
-      <c r="I32" s="4">
-        <v>15</v>
-      </c>
       <c r="J32" s="4">
-        <v>17</v>
-      </c>
-      <c r="K32" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="K32" s="18"/>
+      <c r="L32" s="4">
+        <v>15</v>
+      </c>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="4">
         <v>15</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4">
-        <v>15</v>
-      </c>
+      <c r="F33" s="4">
+        <v>17</v>
+      </c>
+      <c r="G33" s="4">
+        <v>16</v>
+      </c>
+      <c r="H33" s="18"/>
       <c r="I33" s="4">
         <v>15</v>
       </c>
       <c r="J33" s="4">
-        <v>17</v>
-      </c>
-      <c r="K33" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="K33" s="18"/>
+      <c r="L33" s="4">
+        <v>16</v>
+      </c>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
         <v>33</v>
@@ -1725,112 +1800,122 @@
         <v>17</v>
       </c>
       <c r="D34" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" s="4">
+        <v>15</v>
+      </c>
+      <c r="F34" s="4">
+        <v>16</v>
+      </c>
+      <c r="G34" s="4">
+        <v>17</v>
+      </c>
+      <c r="H34" s="18"/>
+      <c r="I34" s="4">
         <v>13</v>
       </c>
-      <c r="F34" s="4">
+      <c r="J34" s="4">
         <v>18</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4">
-        <v>15</v>
-      </c>
-      <c r="I34" s="4">
-        <v>15</v>
-      </c>
-      <c r="J34" s="4">
-        <v>16</v>
-      </c>
-      <c r="K34" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K34" s="18"/>
+      <c r="L34" s="4">
+        <v>16</v>
+      </c>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4">
+        <v>15</v>
+      </c>
+      <c r="E35" s="4">
+        <v>15</v>
+      </c>
+      <c r="F35" s="4">
+        <v>17</v>
+      </c>
+      <c r="G35" s="4">
+        <v>17</v>
+      </c>
+      <c r="H35" s="18"/>
+      <c r="I35" s="4">
         <v>14</v>
       </c>
-      <c r="E35" s="4">
+      <c r="J35" s="4">
         <v>14</v>
       </c>
-      <c r="F35" s="4">
+      <c r="K35" s="18"/>
+      <c r="L35" s="4">
         <v>14</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4">
-        <v>15</v>
-      </c>
-      <c r="I35" s="4">
-        <v>15</v>
-      </c>
-      <c r="J35" s="4">
-        <v>17</v>
-      </c>
-      <c r="K35" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" s="4">
         <v>15</v>
       </c>
       <c r="F36" s="4">
-        <v>15</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G36" s="4">
+        <v>17</v>
+      </c>
+      <c r="H36" s="18"/>
       <c r="I36" s="4">
         <v>15</v>
       </c>
       <c r="J36" s="4">
-        <v>17</v>
-      </c>
-      <c r="K36" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="K36" s="18"/>
+      <c r="L36" s="4">
+        <v>16</v>
+      </c>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4">
-        <v>16</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4">
-        <v>15</v>
-      </c>
-      <c r="I37" s="4">
-        <v>15</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E37" s="4">
+        <v>15</v>
+      </c>
+      <c r="F37" s="4">
+        <v>16</v>
+      </c>
+      <c r="G37" s="4">
+        <v>17</v>
+      </c>
+      <c r="H37" s="18"/>
+      <c r="I37" s="4"/>
       <c r="J37" s="4">
-        <v>16</v>
-      </c>
-      <c r="K37" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="K37" s="18"/>
+      <c r="L37" s="4">
+        <v>16</v>
+      </c>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
         <v>37</v>
@@ -1839,29 +1924,31 @@
         <v>16</v>
       </c>
       <c r="D38" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F38" s="4">
         <v>16</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4">
-        <v>15</v>
-      </c>
+      <c r="G38" s="4">
+        <v>17</v>
+      </c>
+      <c r="H38" s="18"/>
       <c r="I38" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J38" s="4">
         <v>16</v>
       </c>
-      <c r="K38" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K38" s="18"/>
+      <c r="L38" s="4">
+        <v>16</v>
+      </c>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
         <v>38</v>
@@ -1871,53 +1958,57 @@
         <v>15</v>
       </c>
       <c r="E39" s="4">
+        <v>15</v>
+      </c>
+      <c r="F39" s="4">
+        <v>15</v>
+      </c>
+      <c r="G39" s="4">
+        <v>16</v>
+      </c>
+      <c r="H39" s="18"/>
+      <c r="I39" s="4">
         <v>13</v>
       </c>
-      <c r="F39" s="4">
-        <v>16</v>
-      </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4">
-        <v>15</v>
-      </c>
-      <c r="I39" s="4">
-        <v>15</v>
-      </c>
       <c r="J39" s="4">
-        <v>15</v>
-      </c>
-      <c r="K39" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="K39" s="18"/>
+      <c r="L39" s="4">
+        <v>15</v>
+      </c>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4">
+        <v>15</v>
+      </c>
+      <c r="E40" s="4">
+        <v>15</v>
+      </c>
+      <c r="F40" s="4">
+        <v>16</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="4">
         <v>14</v>
       </c>
-      <c r="E40" s="4">
+      <c r="J40" s="4">
         <v>14</v>
       </c>
-      <c r="F40" s="4">
+      <c r="K40" s="18"/>
+      <c r="L40" s="4">
         <v>14</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4">
-        <v>15</v>
-      </c>
-      <c r="I40" s="4">
-        <v>15</v>
-      </c>
-      <c r="J40" s="4">
-        <v>16</v>
-      </c>
-      <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
         <v>40</v>
@@ -1929,56 +2020,60 @@
         <v>15</v>
       </c>
       <c r="E41" s="4">
+        <v>15</v>
+      </c>
+      <c r="F41" s="4">
+        <v>17</v>
+      </c>
+      <c r="G41" s="4">
+        <v>17</v>
+      </c>
+      <c r="H41" s="18"/>
+      <c r="I41" s="4">
         <v>13</v>
       </c>
-      <c r="F41" s="4">
+      <c r="J41" s="4">
         <v>14</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4">
-        <v>15</v>
-      </c>
-      <c r="I41" s="4">
-        <v>15</v>
-      </c>
-      <c r="J41" s="4">
-        <v>17</v>
-      </c>
-      <c r="K41" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K41" s="18"/>
+      <c r="L41" s="4">
+        <v>15</v>
+      </c>
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
         <v>107</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="D42" s="4">
+        <v>15</v>
+      </c>
       <c r="E42" s="4">
+        <v>15</v>
+      </c>
+      <c r="F42" s="4">
+        <v>16</v>
+      </c>
+      <c r="G42" s="4">
+        <v>16</v>
+      </c>
+      <c r="H42" s="18"/>
+      <c r="I42" s="4">
         <v>13</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4">
-        <v>15</v>
-      </c>
-      <c r="I42" s="4">
-        <v>15</v>
-      </c>
-      <c r="J42" s="4">
-        <v>16</v>
-      </c>
-      <c r="K42" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J42" s="4"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>41</v>
       </c>
@@ -1987,31 +2082,29 @@
         <v>90</v>
       </c>
       <c r="D44" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="G44" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F44" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="G44" s="16" t="s">
+      <c r="H44" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="I44" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="I44" s="16" t="s">
+      <c r="J44" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="J44" s="16" t="s">
+      <c r="K44" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="K44" s="16" t="s">
+      <c r="L44" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="L44" s="16" t="s">
-        <v>115</v>
       </c>
       <c r="M44" s="16" t="s">
         <v>116</v>
@@ -2019,11 +2112,12 @@
       <c r="N44" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="O44" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O44" s="13"/>
+      <c r="P44" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="17" t="s">
         <v>43</v>
@@ -2032,31 +2126,32 @@
         <v>16</v>
       </c>
       <c r="D45" s="16"/>
-      <c r="E45" s="16">
-        <v>15</v>
-      </c>
-      <c r="F45" s="16">
-        <v>17</v>
-      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="16"/>
       <c r="G45" s="16">
-        <v>17</v>
-      </c>
-      <c r="H45" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="H45" s="16">
+        <v>17</v>
+      </c>
       <c r="I45" s="16"/>
       <c r="J45" s="16">
         <v>16</v>
       </c>
-      <c r="K45" s="16"/>
+      <c r="K45" s="16">
+        <v>16</v>
+      </c>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
       <c r="N45" s="16">
         <v>16</v>
       </c>
-      <c r="O45" s="16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O45" s="13"/>
+      <c r="P45" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="17" t="s">
         <v>44</v>
@@ -2064,10 +2159,10 @@
       <c r="C46" s="16">
         <v>16</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16">
-        <v>16</v>
-      </c>
+      <c r="D46" s="16">
+        <v>14</v>
+      </c>
+      <c r="E46" s="18"/>
       <c r="F46" s="16">
         <v>16</v>
       </c>
@@ -2077,7 +2172,9 @@
       <c r="H46" s="16">
         <v>16</v>
       </c>
-      <c r="I46" s="16"/>
+      <c r="I46" s="16">
+        <v>16</v>
+      </c>
       <c r="J46" s="16">
         <v>15</v>
       </c>
@@ -2085,17 +2182,20 @@
         <v>15</v>
       </c>
       <c r="L46" s="16">
-        <v>14</v>
-      </c>
-      <c r="M46" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="M46" s="16">
+        <v>16</v>
+      </c>
       <c r="N46" s="16">
         <v>16</v>
       </c>
-      <c r="O46" s="16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O46" s="13"/>
+      <c r="P46" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="17" t="s">
         <v>45</v>
@@ -2104,58 +2204,67 @@
         <v>16</v>
       </c>
       <c r="D47" s="16">
-        <v>16</v>
-      </c>
-      <c r="E47" s="16">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E47" s="18"/>
       <c r="F47" s="16">
         <v>16</v>
       </c>
       <c r="G47" s="16">
-        <v>16</v>
-      </c>
-      <c r="H47" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="H47" s="16">
+        <v>16</v>
+      </c>
       <c r="I47" s="16"/>
       <c r="J47" s="16">
         <v>16</v>
       </c>
       <c r="K47" s="16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L47" s="16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M47" s="16">
         <v>16</v>
       </c>
       <c r="N47" s="16"/>
-      <c r="O47" s="16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O47" s="13"/>
+      <c r="P47" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16">
-        <v>17</v>
-      </c>
+      <c r="C48" s="16">
+        <v>16</v>
+      </c>
+      <c r="D48" s="16">
+        <v>15</v>
+      </c>
+      <c r="E48" s="18"/>
+      <c r="F48" s="16"/>
       <c r="G48" s="16">
-        <v>16</v>
-      </c>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="H48" s="16">
+        <v>16</v>
+      </c>
+      <c r="I48" s="16">
+        <v>15</v>
+      </c>
       <c r="J48" s="16">
         <v>16</v>
       </c>
-      <c r="K48" s="16"/>
+      <c r="K48" s="16">
+        <v>16</v>
+      </c>
       <c r="L48" s="16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M48" s="16">
         <v>15</v>
@@ -2163,36 +2272,52 @@
       <c r="N48" s="16">
         <v>16</v>
       </c>
-      <c r="O48" s="16"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O48" s="13"/>
+      <c r="P48" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
+      <c r="C49" s="16">
+        <v>15</v>
+      </c>
+      <c r="D49" s="16">
+        <v>16</v>
+      </c>
+      <c r="E49" s="18"/>
       <c r="F49" s="16">
         <v>16</v>
       </c>
       <c r="G49" s="16">
-        <v>17</v>
-      </c>
-      <c r="H49" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="H49" s="16">
+        <v>17</v>
+      </c>
       <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16">
-        <v>16</v>
-      </c>
+      <c r="J49" s="16">
+        <v>16</v>
+      </c>
+      <c r="K49" s="16">
+        <v>14</v>
+      </c>
+      <c r="L49" s="16"/>
       <c r="M49" s="16">
         <v>15</v>
       </c>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N49" s="16">
+        <v>16</v>
+      </c>
+      <c r="O49" s="13"/>
+      <c r="P49" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="17" t="s">
         <v>47</v>
@@ -2203,33 +2328,34 @@
       <c r="D50" s="16">
         <v>16</v>
       </c>
-      <c r="E50" s="16"/>
+      <c r="E50" s="18"/>
       <c r="F50" s="16">
-        <v>17</v>
-      </c>
-      <c r="G50" s="16">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" s="16"/>
       <c r="H50" s="16">
-        <v>15</v>
-      </c>
-      <c r="I50" s="16"/>
+        <v>17</v>
+      </c>
+      <c r="I50" s="16">
+        <v>15</v>
+      </c>
       <c r="J50" s="16">
         <v>15</v>
       </c>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16">
-        <v>16</v>
-      </c>
+      <c r="K50" s="16">
+        <v>15</v>
+      </c>
+      <c r="L50" s="16"/>
       <c r="M50" s="16"/>
       <c r="N50" s="16">
         <v>16</v>
       </c>
-      <c r="O50" s="16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O50" s="13"/>
+      <c r="P50" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="17" t="s">
         <v>70</v>
@@ -2238,31 +2364,32 @@
         <v>14</v>
       </c>
       <c r="D51" s="16"/>
-      <c r="E51" s="16">
-        <v>17</v>
-      </c>
-      <c r="F51" s="16">
-        <v>17</v>
-      </c>
+      <c r="E51" s="18"/>
+      <c r="F51" s="16"/>
       <c r="G51" s="16">
-        <v>16</v>
-      </c>
-      <c r="H51" s="16"/>
+        <v>17</v>
+      </c>
+      <c r="H51" s="16">
+        <v>16</v>
+      </c>
       <c r="I51" s="16"/>
-      <c r="J51" s="16">
-        <v>16</v>
-      </c>
+      <c r="J51" s="16"/>
       <c r="K51" s="16">
         <v>16</v>
       </c>
-      <c r="L51" s="16"/>
+      <c r="L51" s="16">
+        <v>16</v>
+      </c>
       <c r="M51" s="16">
         <v>16</v>
       </c>
       <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O51" s="13"/>
+      <c r="P51" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="17" t="s">
         <v>48</v>
@@ -2271,31 +2398,32 @@
       <c r="D52" s="16">
         <v>16</v>
       </c>
-      <c r="E52" s="16"/>
+      <c r="E52" s="18"/>
       <c r="F52" s="16">
         <v>16</v>
       </c>
-      <c r="G52" s="16">
-        <v>17</v>
-      </c>
-      <c r="H52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16">
+        <v>17</v>
+      </c>
       <c r="I52" s="16"/>
-      <c r="J52" s="16">
-        <v>15</v>
-      </c>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16">
-        <v>16</v>
-      </c>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16">
+        <v>15</v>
+      </c>
+      <c r="L52" s="16"/>
       <c r="M52" s="16">
         <v>16</v>
       </c>
       <c r="N52" s="16">
         <v>16</v>
       </c>
-      <c r="O52" s="16"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O52" s="13"/>
+      <c r="P52" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="17" t="s">
         <v>49</v>
@@ -2306,29 +2434,30 @@
       <c r="D53" s="16">
         <v>15</v>
       </c>
-      <c r="E53" s="16"/>
+      <c r="E53" s="18"/>
       <c r="F53" s="16">
-        <v>16</v>
-      </c>
-      <c r="G53" s="16">
-        <v>17</v>
-      </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16">
-        <v>15</v>
-      </c>
-      <c r="J53" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16">
+        <v>17</v>
+      </c>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16">
+        <v>15</v>
+      </c>
       <c r="K53" s="16"/>
-      <c r="L53" s="16">
-        <v>15</v>
-      </c>
+      <c r="L53" s="16"/>
       <c r="M53" s="16"/>
       <c r="N53" s="16">
         <v>15</v>
       </c>
-      <c r="O53" s="16"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O53" s="13"/>
+      <c r="P53" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="17" t="s">
         <v>50</v>
@@ -2337,33 +2466,34 @@
       <c r="D54" s="16">
         <v>16</v>
       </c>
-      <c r="E54" s="16">
-        <v>17</v>
-      </c>
+      <c r="E54" s="18"/>
       <c r="F54" s="16">
         <v>16</v>
       </c>
       <c r="G54" s="16">
-        <v>16</v>
-      </c>
-      <c r="H54" s="16"/>
+        <v>17</v>
+      </c>
+      <c r="H54" s="16">
+        <v>16</v>
+      </c>
       <c r="I54" s="16"/>
-      <c r="J54" s="16">
-        <v>15</v>
-      </c>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16">
-        <v>16</v>
-      </c>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16">
+        <v>15</v>
+      </c>
+      <c r="L54" s="16"/>
       <c r="M54" s="16">
         <v>16</v>
       </c>
       <c r="N54" s="16">
         <v>15</v>
       </c>
-      <c r="O54" s="16"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O54" s="13"/>
+      <c r="P54" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="17" t="s">
         <v>51</v>
@@ -2371,67 +2501,69 @@
       <c r="C55" s="16">
         <v>14</v>
       </c>
-      <c r="D55" s="16">
-        <v>16</v>
-      </c>
-      <c r="E55" s="16">
-        <v>17</v>
-      </c>
+      <c r="D55" s="16"/>
+      <c r="E55" s="18"/>
       <c r="F55" s="16">
         <v>16</v>
       </c>
       <c r="G55" s="16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H55" s="16">
-        <v>17</v>
-      </c>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16">
-        <v>16</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I55" s="16">
+        <v>17</v>
+      </c>
+      <c r="J55" s="16"/>
       <c r="K55" s="16">
-        <v>15</v>
-      </c>
-      <c r="L55" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="L55" s="16">
+        <v>15</v>
+      </c>
       <c r="M55" s="16">
         <v>15</v>
       </c>
       <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O55" s="13"/>
+      <c r="P55" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="16">
-        <v>15</v>
-      </c>
-      <c r="E56" s="16">
-        <v>16</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E56" s="18"/>
       <c r="F56" s="16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G56" s="16">
-        <v>17</v>
-      </c>
-      <c r="H56" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="H56" s="16">
+        <v>17</v>
+      </c>
       <c r="I56" s="16"/>
       <c r="J56" s="16"/>
       <c r="K56" s="16"/>
-      <c r="L56" s="16">
-        <v>16</v>
-      </c>
+      <c r="L56" s="16"/>
       <c r="M56" s="16">
         <v>15</v>
       </c>
       <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O56" s="13"/>
+      <c r="P56" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="17" t="s">
         <v>53</v>
@@ -2440,27 +2572,28 @@
         <v>15</v>
       </c>
       <c r="D57" s="16"/>
-      <c r="E57" s="16">
-        <v>15</v>
-      </c>
-      <c r="F57" s="16">
-        <v>17</v>
-      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="16"/>
       <c r="G57" s="16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H57" s="16">
-        <v>16</v>
-      </c>
-      <c r="I57" s="16"/>
+        <v>17</v>
+      </c>
+      <c r="I57" s="16">
+        <v>16</v>
+      </c>
       <c r="J57" s="16"/>
       <c r="K57" s="16"/>
       <c r="L57" s="16"/>
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O57" s="13"/>
+      <c r="P57" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="17" t="s">
         <v>54</v>
@@ -2469,22 +2602,20 @@
         <v>16</v>
       </c>
       <c r="D58" s="16">
-        <v>17</v>
-      </c>
-      <c r="E58" s="16">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E58" s="18"/>
       <c r="F58" s="16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G58" s="16">
-        <v>16</v>
-      </c>
-      <c r="H58" s="16"/>
+        <v>17</v>
+      </c>
+      <c r="H58" s="16">
+        <v>16</v>
+      </c>
       <c r="I58" s="16"/>
-      <c r="J58" s="16">
-        <v>16</v>
-      </c>
+      <c r="J58" s="16"/>
       <c r="K58" s="16">
         <v>16</v>
       </c>
@@ -2495,96 +2626,108 @@
         <v>16</v>
       </c>
       <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O58" s="13"/>
+      <c r="P58" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C59" s="16"/>
-      <c r="D59" s="16">
-        <v>15</v>
-      </c>
-      <c r="E59" s="16">
-        <v>15</v>
-      </c>
+      <c r="D59" s="16"/>
+      <c r="E59" s="18"/>
       <c r="F59" s="16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G59" s="16">
-        <v>16</v>
-      </c>
-      <c r="H59" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="H59" s="16">
+        <v>16</v>
+      </c>
       <c r="I59" s="16"/>
-      <c r="J59" s="16">
-        <v>16</v>
-      </c>
-      <c r="K59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16">
+        <v>16</v>
+      </c>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O59" s="13"/>
+      <c r="P59" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="17" t="s">
         <v>56</v>
       </c>
       <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16">
-        <v>17</v>
-      </c>
-      <c r="G60" s="16">
-        <v>16</v>
-      </c>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16">
-        <v>16</v>
-      </c>
+      <c r="D60" s="16">
+        <v>16</v>
+      </c>
+      <c r="E60" s="18"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16">
+        <v>16</v>
+      </c>
+      <c r="I60" s="16">
+        <v>15</v>
+      </c>
+      <c r="J60" s="16">
+        <v>15</v>
+      </c>
+      <c r="K60" s="16">
+        <v>15</v>
+      </c>
+      <c r="L60" s="16"/>
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O60" s="13"/>
+      <c r="P60" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16">
-        <v>16</v>
-      </c>
-      <c r="G61" s="16">
-        <v>17</v>
-      </c>
+      <c r="D61" s="16">
+        <v>16</v>
+      </c>
+      <c r="E61" s="18"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
       <c r="H61" s="16">
+        <v>17</v>
+      </c>
+      <c r="I61" s="16">
         <v>14</v>
       </c>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16">
+      <c r="J61" s="16"/>
+      <c r="K61" s="16">
         <v>14</v>
       </c>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16">
-        <v>16</v>
-      </c>
+      <c r="L61" s="16"/>
       <c r="M61" s="16">
         <v>14</v>
       </c>
       <c r="N61" s="16">
         <v>14</v>
       </c>
-      <c r="O61" s="16"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O61" s="13"/>
+      <c r="P61" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="17" t="s">
         <v>58</v>
@@ -2593,27 +2736,28 @@
         <v>16</v>
       </c>
       <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16">
-        <v>17</v>
-      </c>
-      <c r="G62" s="16">
-        <v>17</v>
-      </c>
-      <c r="H62" s="16"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16">
+        <v>17</v>
+      </c>
       <c r="I62" s="16"/>
-      <c r="J62" s="16">
-        <v>15</v>
-      </c>
+      <c r="J62" s="16"/>
       <c r="K62" s="16">
-        <v>16</v>
-      </c>
-      <c r="L62" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="L62" s="16">
+        <v>16</v>
+      </c>
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O62" s="13"/>
+      <c r="P62" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="17" t="s">
         <v>59</v>
@@ -2624,33 +2768,34 @@
       <c r="D63" s="16">
         <v>16</v>
       </c>
-      <c r="E63" s="16">
-        <v>16</v>
-      </c>
+      <c r="E63" s="18"/>
       <c r="F63" s="16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G63" s="16">
         <v>16</v>
       </c>
-      <c r="H63" s="16"/>
+      <c r="H63" s="16">
+        <v>16</v>
+      </c>
       <c r="I63" s="16"/>
-      <c r="J63" s="16">
-        <v>16</v>
-      </c>
+      <c r="J63" s="16"/>
       <c r="K63" s="16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L63" s="16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M63" s="16">
         <v>15</v>
       </c>
       <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O63" s="13"/>
+      <c r="P63" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="17" t="s">
         <v>60</v>
@@ -2661,31 +2806,36 @@
       <c r="D64" s="16">
         <v>16</v>
       </c>
-      <c r="E64" s="16"/>
+      <c r="E64" s="18"/>
       <c r="F64" s="16">
         <v>16</v>
       </c>
-      <c r="G64" s="16">
-        <v>17</v>
-      </c>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16">
-        <v>16</v>
-      </c>
+      <c r="G64" s="19">
+        <v>15</v>
+      </c>
+      <c r="H64" s="16">
+        <v>17</v>
+      </c>
+      <c r="I64" s="19">
+        <v>16</v>
+      </c>
+      <c r="J64" s="16"/>
       <c r="K64" s="16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L64" s="16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M64" s="16">
         <v>15</v>
       </c>
       <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O64" s="13"/>
+      <c r="P64" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="17" t="s">
         <v>61</v>
@@ -2696,15 +2846,13 @@
       <c r="D65" s="16">
         <v>16</v>
       </c>
-      <c r="E65" s="16"/>
+      <c r="E65" s="18"/>
       <c r="F65" s="16">
         <v>16</v>
       </c>
-      <c r="G65" s="16">
-        <v>17</v>
-      </c>
+      <c r="G65" s="16"/>
       <c r="H65" s="16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I65" s="16">
         <v>16</v>
@@ -2722,9 +2870,12 @@
         <v>16</v>
       </c>
       <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O65" s="13"/>
+      <c r="P65" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="17" t="s">
         <v>62</v>
@@ -2732,32 +2883,33 @@
       <c r="C66" s="16">
         <v>16</v>
       </c>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16">
-        <v>16</v>
-      </c>
-      <c r="G66" s="16">
-        <v>16</v>
-      </c>
-      <c r="H66" s="16"/>
+      <c r="D66" s="16">
+        <v>15</v>
+      </c>
+      <c r="E66" s="18"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16">
+        <v>16</v>
+      </c>
       <c r="I66" s="16"/>
-      <c r="J66" s="16">
-        <v>15</v>
-      </c>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16">
-        <v>15</v>
-      </c>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16">
+        <v>15</v>
+      </c>
+      <c r="L66" s="16"/>
       <c r="M66" s="16">
         <v>15</v>
       </c>
       <c r="N66" s="16">
         <v>16</v>
       </c>
-      <c r="O66" s="16"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O66" s="13"/>
+      <c r="P66" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="17" t="s">
         <v>63</v>
@@ -2765,32 +2917,33 @@
       <c r="C67" s="16">
         <v>15</v>
       </c>
-      <c r="D67" s="16">
-        <v>16</v>
-      </c>
-      <c r="E67" s="16">
-        <v>16</v>
-      </c>
+      <c r="D67" s="16"/>
+      <c r="E67" s="18"/>
       <c r="F67" s="16">
         <v>16</v>
       </c>
       <c r="G67" s="16">
         <v>16</v>
       </c>
-      <c r="H67" s="16"/>
+      <c r="H67" s="16">
+        <v>16</v>
+      </c>
       <c r="I67" s="16"/>
-      <c r="J67" s="16">
-        <v>15</v>
-      </c>
-      <c r="K67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16">
+        <v>15</v>
+      </c>
       <c r="L67" s="16"/>
       <c r="M67" s="16"/>
       <c r="N67" s="16">
         <v>16</v>
       </c>
-      <c r="O67" s="16"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O67" s="13"/>
+      <c r="P67" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="17" t="s">
         <v>64</v>
@@ -2801,25 +2954,23 @@
       <c r="D68" s="16">
         <v>16</v>
       </c>
-      <c r="E68" s="16">
-        <v>16</v>
-      </c>
+      <c r="E68" s="18"/>
       <c r="F68" s="16">
         <v>16</v>
       </c>
       <c r="G68" s="16">
         <v>16</v>
       </c>
-      <c r="H68" s="16"/>
+      <c r="H68" s="16">
+        <v>16</v>
+      </c>
       <c r="I68" s="16"/>
-      <c r="J68" s="16">
-        <v>16</v>
-      </c>
+      <c r="J68" s="16"/>
       <c r="K68" s="16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L68" s="16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M68" s="16">
         <v>15</v>
@@ -2827,9 +2978,12 @@
       <c r="N68" s="16">
         <v>16</v>
       </c>
-      <c r="O68" s="16"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O68" s="13"/>
+      <c r="P68" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="17" t="s">
         <v>65</v>
@@ -2837,24 +2991,24 @@
       <c r="C69" s="16">
         <v>16</v>
       </c>
-      <c r="D69" s="16">
-        <v>16</v>
-      </c>
-      <c r="E69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="18"/>
       <c r="F69" s="16">
         <v>16</v>
       </c>
-      <c r="G69" s="16">
-        <v>17</v>
-      </c>
+      <c r="G69" s="16"/>
       <c r="H69" s="16">
-        <v>16</v>
-      </c>
-      <c r="I69" s="16"/>
+        <v>17</v>
+      </c>
+      <c r="I69" s="16">
+        <v>16</v>
+      </c>
       <c r="J69" s="16">
         <v>16</v>
       </c>
-      <c r="K69" s="16"/>
+      <c r="K69" s="16">
+        <v>16</v>
+      </c>
       <c r="L69" s="16"/>
       <c r="M69" s="16">
         <v>15</v>
@@ -2862,11 +3016,12 @@
       <c r="N69" s="16">
         <v>16</v>
       </c>
-      <c r="O69" s="16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O69" s="13"/>
+      <c r="P69" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="17" t="s">
         <v>66</v>
@@ -2874,24 +3029,22 @@
       <c r="C70" s="16">
         <v>16</v>
       </c>
-      <c r="D70" s="16">
-        <v>16</v>
-      </c>
-      <c r="E70" s="16">
-        <v>17</v>
-      </c>
+      <c r="D70" s="16"/>
+      <c r="E70" s="18"/>
       <c r="F70" s="16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G70" s="16">
-        <v>16</v>
-      </c>
-      <c r="H70" s="16"/>
+        <v>17</v>
+      </c>
+      <c r="H70" s="16">
+        <v>16</v>
+      </c>
       <c r="I70" s="16"/>
-      <c r="J70" s="16">
-        <v>15</v>
-      </c>
-      <c r="K70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16">
+        <v>15</v>
+      </c>
       <c r="L70" s="16"/>
       <c r="M70" s="16">
         <v>14</v>
@@ -2899,9 +3052,12 @@
       <c r="N70" s="16">
         <v>16</v>
       </c>
-      <c r="O70" s="16"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O70" s="13"/>
+      <c r="P70" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="17" t="s">
         <v>67</v>
@@ -2910,27 +3066,25 @@
         <v>16</v>
       </c>
       <c r="D71" s="16">
-        <v>16</v>
-      </c>
-      <c r="E71" s="16">
-        <v>16</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E71" s="18"/>
       <c r="F71" s="16">
         <v>16</v>
       </c>
       <c r="G71" s="16">
         <v>16</v>
       </c>
-      <c r="H71" s="16"/>
+      <c r="H71" s="16">
+        <v>16</v>
+      </c>
       <c r="I71" s="16"/>
-      <c r="J71" s="16">
-        <v>16</v>
-      </c>
+      <c r="J71" s="16"/>
       <c r="K71" s="16">
         <v>16</v>
       </c>
       <c r="L71" s="16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M71" s="16">
         <v>16</v>
@@ -2938,32 +3092,46 @@
       <c r="N71" s="16">
         <v>16</v>
       </c>
-      <c r="O71" s="16"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O71" s="13"/>
+      <c r="P71" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16">
-        <v>16</v>
-      </c>
-      <c r="G72" s="16">
-        <v>16</v>
-      </c>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
+      <c r="C72" s="16">
+        <v>16</v>
+      </c>
+      <c r="D72" s="16">
+        <v>16</v>
+      </c>
+      <c r="E72" s="18"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16">
+        <v>16</v>
+      </c>
+      <c r="I72" s="16">
+        <v>15</v>
+      </c>
       <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
+      <c r="K72" s="16">
+        <v>15</v>
+      </c>
+      <c r="L72" s="16">
+        <v>15</v>
+      </c>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O72" s="13"/>
+      <c r="P72" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="17" t="s">
         <v>69</v>
@@ -2974,45 +3142,46 @@
       <c r="D73" s="16">
         <v>16</v>
       </c>
-      <c r="E73" s="16">
-        <v>16</v>
-      </c>
+      <c r="E73" s="18"/>
       <c r="F73" s="16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G73" s="16">
         <v>16</v>
       </c>
-      <c r="H73" s="16"/>
+      <c r="H73" s="16">
+        <v>16</v>
+      </c>
       <c r="I73" s="16"/>
-      <c r="J73" s="16">
-        <v>15</v>
-      </c>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16">
-        <v>16</v>
-      </c>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16">
+        <v>15</v>
+      </c>
+      <c r="L73" s="16"/>
       <c r="M73" s="16">
         <v>16</v>
       </c>
       <c r="N73" s="16">
         <v>16</v>
       </c>
-      <c r="O73" s="16"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O73" s="13"/>
+      <c r="P73" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
       <c r="B74" s="15"/>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>71</v>
       </c>
@@ -3024,7 +3193,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="5" t="s">
         <v>72</v>
@@ -3036,7 +3205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="5" t="s">
         <v>81</v>
@@ -3048,7 +3217,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="6" t="s">
         <v>73</v>
@@ -3060,7 +3229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="5" t="s">
         <v>80</v>
